--- a/作业项目/商务智能/4-2.xlsx
+++ b/作业项目/商务智能/4-2.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -481,87 +481,87 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -583,19 +583,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,6 +633,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E11">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
